--- a/experiments/01-genome-wide-simulate/results/genome-wide-simulation.xlsx
+++ b/experiments/01-genome-wide-simulate/results/genome-wide-simulation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>hsq</t>
   </si>
@@ -31,6 +31,9 @@
     <t>rg_stderr</t>
   </si>
   <si>
+    <t>pval_delta</t>
+  </si>
+  <si>
     <t>p[reject rg=1]</t>
   </si>
   <si>
@@ -209,6 +212,93 @@
   </si>
   <si>
     <t>0.025</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.046</t>
   </si>
 </sst>
 </file>
@@ -566,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +681,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -603,16 +696,19 @@
         <v>1E-05</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -623,16 +719,19 @@
         <v>0.0001</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>0.242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -643,16 +742,19 @@
         <v>0.001</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="F4">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -663,16 +765,19 @@
         <v>0.01</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -683,16 +788,19 @@
         <v>1E-05</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -703,16 +811,19 @@
         <v>0.0001</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -723,16 +834,19 @@
         <v>0.001</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -743,16 +857,19 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -763,16 +880,19 @@
         <v>1E-05</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -783,16 +903,19 @@
         <v>0.0001</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -803,16 +926,19 @@
         <v>0.001</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -823,16 +949,19 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -843,16 +972,19 @@
         <v>1E-05</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>0.582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.25</v>
       </c>
@@ -863,16 +995,19 @@
         <v>0.0001</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15">
-        <v>0.596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.25</v>
       </c>
@@ -883,16 +1018,19 @@
         <v>0.001</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16">
-        <v>0.674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>0.25</v>
       </c>
@@ -903,16 +1041,19 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>0.25</v>
       </c>
@@ -923,16 +1064,19 @@
         <v>1E-05</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18">
-        <v>0.326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>0.25</v>
       </c>
@@ -943,16 +1087,19 @@
         <v>0.0001</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>0.25</v>
       </c>
@@ -963,16 +1110,19 @@
         <v>0.001</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>0.25</v>
       </c>
@@ -983,16 +1133,19 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21">
-        <v>0.256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1003,16 +1156,19 @@
         <v>1E-05</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>0.25</v>
       </c>
@@ -1023,16 +1179,19 @@
         <v>0.0001</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>0.25</v>
       </c>
@@ -1043,16 +1202,19 @@
         <v>0.001</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>0.25</v>
       </c>
@@ -1063,16 +1225,19 @@
         <v>0.01</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -1083,16 +1248,19 @@
         <v>1E-05</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26">
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>0.5</v>
       </c>
@@ -1103,16 +1271,19 @@
         <v>0.0001</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -1123,16 +1294,19 @@
         <v>0.001</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28">
+        <v>0.9360000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -1143,16 +1317,19 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29">
+        <v>0.912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1163,16 +1340,19 @@
         <v>1E-05</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30">
-        <v>0.506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>0.5</v>
       </c>
@@ -1183,16 +1363,19 @@
         <v>0.0001</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31">
-        <v>0.512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -1203,16 +1386,19 @@
         <v>0.001</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32">
-        <v>0.514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>0.5</v>
       </c>
@@ -1223,16 +1409,19 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33">
-        <v>0.524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>0.5</v>
       </c>
@@ -1243,16 +1432,19 @@
         <v>1E-05</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -1263,16 +1455,19 @@
         <v>0.0001</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>0.5</v>
       </c>
@@ -1283,16 +1478,19 @@
         <v>0.001</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -1303,13 +1501,16 @@
         <v>0.01</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37">
-        <v>0.036</v>
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>0.056</v>
       </c>
     </row>
   </sheetData>
